--- a/Java/Class_Projects/COURSE_MALL_PROJECT/COURSE_MALL_test-data.xlsx
+++ b/Java/Class_Projects/COURSE_MALL_PROJECT/COURSE_MALL_test-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EmpowHER\Empowher-Curriculum\Java\Class_Projects\COURSE_MALL_PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EmpowHER\Empowher-Curriculum-new\Java\Class_Projects\COURSE_MALL_PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8909736-1C86-4444-A88E-40E695C79853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7666B592-531A-4CA1-9B2B-4FD8975D3690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>Quantum Mechanics</t>
   </si>
@@ -167,6 +167,33 @@
   </si>
   <si>
     <t>Course Table</t>
+  </si>
+  <si>
+    <t>Author Table</t>
+  </si>
+  <si>
+    <t>courseDept</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>qualification</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Psychology</t>
   </si>
 </sst>
 </file>
@@ -216,9 +243,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC5FC42-B157-46EB-88D3-327CC1DFF31B}">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,16 +540,18 @@
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -538,8 +570,11 @@
       <c r="F3" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -558,8 +593,11 @@
       <c r="F4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -578,8 +616,11 @@
       <c r="F5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -598,8 +639,11 @@
       <c r="F6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -618,8 +662,11 @@
       <c r="F7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -638,8 +685,11 @@
       <c r="F8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -658,8 +708,11 @@
       <c r="F9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -678,8 +731,11 @@
       <c r="F10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -698,8 +754,11 @@
       <c r="F11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -718,8 +777,11 @@
       <c r="F12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -737,6 +799,31 @@
       </c>
       <c r="F13" t="s">
         <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
